--- a/IndexCounter/IndexCounter/bin/Debug/Женщины внутреннее (Det)(15.07.2015 14-00-47).xlsx
+++ b/IndexCounter/IndexCounter/bin/Debug/Женщины внутреннее (Det)(15.07.2015 14-00-47).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovachev\Desktop\LAR (Det)\Det\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\Desktop\IndexCounter\IndexCounter\IndexCounter\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -207,8 +207,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.19615410142697681"/>
-                  <c:y val="7.9925258650147962E-2"/>
+                  <c:x val="-0.46626904395571245"/>
+                  <c:y val="0.16487447379326892"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -575,11 +575,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="372984960"/>
-        <c:axId val="373314840"/>
+        <c:axId val="284672624"/>
+        <c:axId val="284671056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="372984960"/>
+        <c:axId val="284672624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -697,12 +697,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373314840"/>
+        <c:crossAx val="284671056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="373314840"/>
+        <c:axId val="284671056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -823,7 +823,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="372984960"/>
+        <c:crossAx val="284672624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1728,7 +1728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
